--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D0B9C9-101C-D940-B6D0-F74C2976B880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D930420-907E-FC47-8317-0CCF7ECD676D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="10920" windowWidth="19700" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>K6U4w4TH2OQ</t>
+  </si>
+  <si>
+    <t>Laek_wmUdFs</t>
+  </si>
+  <si>
+    <t>02-Summarizing_Data1</t>
   </si>
 </sst>
 </file>
@@ -641,7 +647,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -744,7 +750,12 @@
       <c r="E4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D930420-907E-FC47-8317-0CCF7ECD676D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B551A91D-A15B-314C-89DC-C74611336FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="10920" windowWidth="19700" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>02-Summarizing_Data1</t>
+  </si>
+  <si>
+    <t>02-Summarizing_Data2</t>
+  </si>
+  <si>
+    <t>T3HVjWD6bjo</t>
   </si>
 </sst>
 </file>
@@ -647,7 +653,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,6 +780,12 @@
       </c>
       <c r="E5" t="s">
         <v>50</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
       </c>
       <c r="H5" s="5"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B551A91D-A15B-314C-89DC-C74611336FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3293268-B3A2-B945-9362-9047F8FE614C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="10920" windowWidth="19700" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -257,6 +257,15 @@
   </si>
   <si>
     <t>T3HVjWD6bjo</t>
+  </si>
+  <si>
+    <t>bHpQqvlvBk0</t>
+  </si>
+  <si>
+    <t>Building a portfolio with Github and Quarto</t>
+  </si>
+  <si>
+    <t>Portfolio_Talk</t>
   </si>
 </sst>
 </file>
@@ -650,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -766,7 +775,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A17" si="0">A4+7</f>
+        <f t="shared" ref="A5:A18" si="0">A4+7</f>
         <v>45700</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -790,29 +799,21 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>45707</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="H6" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>45714</v>
+        <f>A5+7</f>
+        <v>45707</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -821,17 +822,18 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
-        <v>45721</v>
+        <v>45714</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -840,17 +842,17 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
-        <v>45728</v>
+        <v>45721</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -859,17 +861,17 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>45735</v>
+        <v>45728</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -878,17 +880,17 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>45742</v>
+        <v>45735</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -897,17 +899,17 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
-        <v>45749</v>
+        <v>45742</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -916,17 +918,17 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
-        <v>45756</v>
+        <v>45749</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
@@ -935,44 +937,45 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
-        <v>45763</v>
+        <v>45756</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45769</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>45763</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45777</v>
+        <v>45769</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -981,17 +984,16 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>45784</v>
+        <v>45777</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
@@ -1000,18 +1002,37 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>45784</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H20" s="5"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3293268-B3A2-B945-9362-9047F8FE614C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9F3809-14EB-024A-98EC-6A1F0385CE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="10920" windowWidth="19700" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>Portfolio_Talk</t>
+  </si>
+  <si>
+    <t>6:30 pm</t>
+  </si>
+  <si>
+    <t>7:00 pm</t>
   </si>
 </sst>
 </file>
@@ -661,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,6 +805,15 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45707</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="s">
         <v>75</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2025 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9F3809-14EB-024A-98EC-6A1F0385CE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E38E7D-0297-B140-9BB2-F99469ED25C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="10920" windowWidth="19700" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>7:00 pm</t>
+  </si>
+  <si>
+    <t>03-Probability</t>
+  </si>
+  <si>
+    <t>n1XP8yo_gXY</t>
   </si>
 </sst>
 </file>
@@ -667,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -842,7 +848,12 @@
       <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
